--- a/Bicycle-Rental/asset/user.xlsx
+++ b/Bicycle-Rental/asset/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B14CACC-2F5A-4BB5-8ED6-A2A02019FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1380982-4DD3-4AC4-A2D2-685470C828B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ten</t>
   </si>
@@ -55,16 +55,39 @@
   </si>
   <si>
     <t>sdt</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@123</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>admin@bicycle.rental.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +110,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,19 +398,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -415,8 +444,47 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>2002</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>123456789</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{55D68940-CF87-4B5D-B385-DA45BC293415}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{E68EDC71-7C93-4D2E-AE62-952742F52B88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bicycle-Rental/asset/user.xlsx
+++ b/Bicycle-Rental/asset/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1380982-4DD3-4AC4-A2D2-685470C828B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABDC63A-F5D5-472C-8A3D-6C83F9F2B587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ten</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>admin@bicycle.rental.com</t>
+  </si>
+  <si>
+    <t>penalty</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +416,7 @@
     <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -478,6 +484,9 @@
       </c>
       <c r="K2">
         <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bicycle-Rental/asset/user.xlsx
+++ b/Bicycle-Rental/asset/user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1380982-4DD3-4AC4-A2D2-685470C828B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078316F9-9C65-4AEF-824E-299A91849CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="0" windowWidth="9780" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>ten</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>admin@bicycle.rental.com</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
 </sst>
 </file>
@@ -398,22 +401,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -447,8 +450,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -478,6 +484,9 @@
       </c>
       <c r="K2">
         <v>1</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Bicycle-Rental/asset/user.xlsx
+++ b/Bicycle-Rental/asset/user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\Bicycle-Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078316F9-9C65-4AEF-824E-299A91849CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60772B9-213D-48E7-A361-3545FAD1DFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="0" windowWidth="9780" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,20 +403,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -454,7 +454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
